--- a/MEDIA/100000_1101_001_會計科目餘額明細.xlsx
+++ b/MEDIA/100000_1101_001_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(100000_1101_001_2020-10-21~2020-10-21)</t>
+          <t>森邦(股)會計科目餘額明細(100000_1101_001_2020-10-22~2020-10-22)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>512882</v>
+        <v>10802</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>沖10/21總收現金                    </t>
+          <t>沖10/19總收現金                    </t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-1316699</v>
+        <v>-414</v>
       </c>
       <c r="G4" t="n">
-        <v>-803817</v>
+        <v>10388</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110378</t>
+          <t>110438</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,38 +478,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>桃園龍安                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>沖10/20總收現金                    </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12302</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-8068</v>
       </c>
       <c r="G5" t="n">
-        <v>-791515</v>
+        <v>2320</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110364</t>
+          <t>110438</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000668</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,38 +519,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>桃園龍壽                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>沖10/21總收現金                    </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3536</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-2320</v>
       </c>
       <c r="G6" t="n">
-        <v>-787979</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>110364</t>
+          <t>110438</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1000771</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,38 +560,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新竹光華                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>沖10/22總收現金                    </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-74945</v>
       </c>
       <c r="G7" t="n">
-        <v>-763979</v>
+        <v>-74945</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>110364</t>
+          <t>110438</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1000031</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,38 +601,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>永康正強                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>轉零用金                          </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17823</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-150000</v>
       </c>
       <c r="G8" t="n">
-        <v>-746156</v>
+        <v>-224945</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>110364</t>
+          <t>110438</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000806</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,38 +642,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>桃園永安	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付10/22外務油資+停車費               </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-2465</v>
       </c>
       <c r="G9" t="n">
-        <v>-740156</v>
+        <v>-227410</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>110364</t>
+          <t>110438</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000847</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金山中山                                    </t>
+          <t>觀音中正                                    </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -692,29 +692,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7895</v>
+        <v>10316</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-732261</v>
+        <v>-217094</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>110366</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000276</t>
+          <t>1000457</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汐止大同                                    </t>
+          <t>其他                                      </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,29 +733,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27871</v>
+        <v>180</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-704390</v>
+        <v>-216914</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>110366</t>
+          <t>110388</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000294</t>
+          <t>1000000</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>新竹東園                                    </t>
+          <t>楊梅大成                                    </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -774,29 +774,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>22616</v>
+        <v>29400</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-681774</v>
+        <v>-187514</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>110364</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000066</t>
+          <t>1000543</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>永康四維                                    </t>
+          <t>觀音新坡                                    </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -815,29 +815,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5000</v>
+        <v>17773</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-676774</v>
+        <v>-169741</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>110364</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000185</t>
+          <t>1000617</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>桃園成功	                                   </t>
+          <t>中央大學校內                                  </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -856,29 +856,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-663774</v>
+        <v>-150741</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>110364</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000868</t>
+          <t>1000646</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>永康民族	                                   </t>
+          <t>中和遠雄                                    </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -897,29 +897,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28028</v>
+        <v>6749</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-635746</v>
+        <v>-143992</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>110364</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000876</t>
+          <t>1000694</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>竹北華興                                    </t>
+          <t>比佛利                                     </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -938,29 +938,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>40948</v>
+        <v>11500</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-594798</v>
+        <v>-132492</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>110366</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000562</t>
+          <t>1000703</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>竹北中華                                    </t>
+          <t>楠梓監理                                    </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -979,29 +979,29 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2760</v>
+        <v>20000</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-592038</v>
+        <v>-112492</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>110366</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000563</t>
+          <t>1000711</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>台南北安                                    </t>
+          <t>中和泰和                                    </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1020,29 +1020,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19266</v>
+        <v>16000</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-572772</v>
+        <v>-96492</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>110372</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000043</t>
+          <t>1000807</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>台南北成                                    </t>
+          <t>永和永平                                    </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1061,29 +1061,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4208</v>
+        <v>10594</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-568564</v>
+        <v>-85898</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>110372</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000171</t>
+          <t>1000818</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>新竹建新                                    </t>
+          <t>板橋大同                                    </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1102,29 +1102,29 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16985</v>
+        <v>17929</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-551579</v>
+        <v>-67969</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>110364</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000213</t>
+          <t>1000729</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>永康復國                                    </t>
+          <t>板橋中山	                                   </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,29 +1143,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19937</v>
+        <v>24070</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-531642</v>
+        <v>-43899</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>110364</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000257</t>
+          <t>1000799</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>新竹交大	                                   </t>
+          <t>永和中山	                                   </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1184,29 +1184,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20200</v>
+        <v>11100</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-511442</v>
+        <v>-32799</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>110364</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1000883</t>
+          <t>1000869</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>汐止康寧                                    </t>
+          <t>板橋新民	                                   </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10000</v>
+        <v>10985</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-501442</v>
+        <v>-21814</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>110366</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1000632</t>
+          <t>1000930</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>高雄湖內                                    </t>
+          <t>板橋新生                                    </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1266,29 +1266,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>15200</v>
+        <v>13239</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-486242</v>
+        <v>-8575</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>110372</t>
+          <t>110428</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1000206</t>
+          <t>1000288</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>台南裕文                                    </t>
+          <t>泰山海德堡                                   </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1307,29 +1307,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16488</v>
+        <v>7000</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-469754</v>
+        <v>-1575</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>110372</t>
+          <t>110428</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1000663</t>
+          <t>1000469</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>台南中華	                                   </t>
+          <t>中壢三光	                                   </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1348,29 +1348,29 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>43861</v>
+        <v>10629</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-425893</v>
+        <v>9054</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>110372</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1000801</t>
+          <t>1000934</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>新市富中	                                   </t>
+          <t>新莊新豐                                    </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>20018</v>
+        <v>23890</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-405875</v>
+        <v>32944</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>110364</t>
+          <t>110428</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1000902</t>
+          <t>1000142</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>竹北縣政                                    </t>
+          <t>土城千歲                                    </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1430,29 +1430,29 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7088</v>
+        <v>4059</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-398787</v>
+        <v>37003</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>110366</t>
+          <t>110428</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1000159</t>
+          <t>1000559</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>竹北台大                                    </t>
+          <t>板橋龍興                                    </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1471,29 +1471,29 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-386487</v>
+        <v>48503</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>110366</t>
+          <t>110428</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1000183</t>
+          <t>1000566</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>南港胡適                                    </t>
+          <t>迴龍光啟                                    </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1512,29 +1512,29 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>23909</v>
+        <v>27000</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-362578</v>
+        <v>75503</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>110366</t>
+          <t>110428</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1000702</t>
+          <t>1000697</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>竹北自強                                    </t>
+          <t>土城頂捷                                    </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1553,29 +1553,29 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>16124</v>
+        <v>20000</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-346454</v>
+        <v>95503</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>110366</t>
+          <t>110428</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1000758</t>
+          <t>1000712</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>台南裕農                                    </t>
+          <t>嘉義民族                                    </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1594,29 +1594,29 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>9600</v>
+        <v>19733</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-336854</v>
+        <v>115236</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>110372</t>
+          <t>110429</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1000300</t>
+          <t>1000092</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>新竹南大                                    </t>
+          <t>朴子海通                                    </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1635,29 +1635,29 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>8034</v>
+        <v>25621</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-328820</v>
+        <v>140857</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>110373</t>
+          <t>110429</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1000065</t>
+          <t>1000161</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>新竹金竹                                    </t>
+          <t>台北大龍                                    </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1676,29 +1676,29 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>18613</v>
+        <v>8111</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-310207</v>
+        <v>148968</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>110373</t>
+          <t>110430</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1000086</t>
+          <t>1000039</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>新竹明湖                                    </t>
+          <t>台北敦煌                                    </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1717,29 +1717,29 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10720</v>
+        <v>9607</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-299487</v>
+        <v>158575</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>110373</t>
+          <t>110430</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1000237</t>
+          <t>1000048</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>汐止明峰	                                   </t>
+          <t>觀音觀音                                    </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1758,29 +1758,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>9630</v>
+        <v>16147</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-289857</v>
+        <v>174722</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>110366</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1000776</t>
+          <t>1000021</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>竹北新泰                                    </t>
+          <t>土城明峯                                    </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1799,29 +1799,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>45332</v>
+        <v>9000</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-244525</v>
+        <v>183722</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>110366</t>
+          <t>110428</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1000819</t>
+          <t>1000581</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>青埔高鐵                                    </t>
+          <t>新莊民安                                    </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1840,29 +1840,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25960</v>
+        <v>16000</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-218565</v>
+        <v>199722</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>110366</t>
+          <t>110428</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1000899</t>
+          <t>1000739</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>台南裕信                                    </t>
+          <t>板橋樂群	                                   </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1881,29 +1881,29 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>13079</v>
+        <v>14810</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-205486</v>
+        <v>214532</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>110372</t>
+          <t>110428</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1000440</t>
+          <t>1000825</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>仁德虎山                                    </t>
+          <t>嘉義彌陀                                    </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1922,29 +1922,29 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19606</v>
+        <v>11618</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-185880</v>
+        <v>226150</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>110372</t>
+          <t>110429</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1000453</t>
+          <t>1000260</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>台南大港                                    </t>
+          <t>萬能科大                                    </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1963,29 +1963,29 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>20294</v>
+        <v>14436</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-165586</v>
+        <v>240586</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>110372</t>
+          <t>110429</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1000492</t>
+          <t>1000401</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>新竹牛埔                                    </t>
+          <t>台北錦州                                    </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2004,29 +2004,29 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-158586</v>
+        <v>248586</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>110373</t>
+          <t>110430</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1000381</t>
+          <t>1000212</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鳳山光復                                    </t>
+          <t>北市松隆                                    </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2045,29 +2045,29 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>26490</v>
+        <v>5869</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-132096</v>
+        <v>254455</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>110374</t>
+          <t>110430</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1000421</t>
+          <t>1000339</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>高雄大豐                                    </t>
+          <t>佳里延平                                    </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2086,29 +2086,29 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>18096</v>
+        <v>25794</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-114000</v>
+        <v>280249</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>110374</t>
+          <t>110430</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1000578</t>
+          <t>1000416</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>台南長和                                    </t>
+          <t>楠梓藍昌                                    </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2127,29 +2127,29 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>11100</v>
+        <v>21000</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-102900</v>
+        <v>301249</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>110372</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1000574</t>
+          <t>1000085</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>新竹中山                                    </t>
+          <t>中壢成章                                    </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2168,29 +2168,29 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>56177</v>
+        <v>17500</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-46723</v>
+        <v>318749</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>110373</t>
+          <t>110429</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1000577</t>
+          <t>1000053</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>新竹香北                                    </t>
+          <t>中壢長春                                    </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2209,29 +2209,29 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7561</v>
+        <v>24000</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>-39162</v>
+        <v>342749</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>110373</t>
+          <t>110429</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1000604</t>
+          <t>1000558</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>內壢榮安                                    </t>
+          <t>嘉義太保                                    </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2250,29 +2250,29 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8004</v>
+        <v>15294</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-31158</v>
+        <v>358043</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>110374</t>
+          <t>110429</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1000059</t>
+          <t>1000608</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>高雄義華                                    </t>
+          <t>北市建國                                    </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2291,29 +2291,29 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>12283</v>
+        <v>16221</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>-18875</v>
+        <v>374264</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>110374</t>
+          <t>110430</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1000083</t>
+          <t>1000360</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>大溪老街                                    </t>
+          <t>北市士商	                                   </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2332,29 +2332,29 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8800</v>
+        <v>11973</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-10075</v>
+        <v>386237</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>110374</t>
+          <t>110430</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1000894</t>
+          <t>1000800</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>高雄大昌                                    </t>
+          <t>善化蓮潭                                    </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2373,29 +2373,29 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>19862</v>
+        <v>9257</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>9787</v>
+        <v>395494</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>110374</t>
+          <t>110430</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1000896</t>
+          <t>1000587</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>桃園中山北                                   </t>
+          <t>新營民治	                                   </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2414,29 +2414,29 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>7808</v>
+        <v>34891</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>17595</v>
+        <v>430385</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>110364</t>
+          <t>110430</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1000313</t>
+          <t>1000906</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>新竹東南                                    </t>
+          <t>北市忠義                                    </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2455,29 +2455,29 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14570</v>
+        <v>27466</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>32165</v>
+        <v>457851</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>110364</t>
+          <t>110431</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1000459</t>
+          <t>1000189</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>新竹南寮                                    </t>
+          <t>岡山校前                                    </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2496,29 +2496,29 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>10915</v>
+        <v>15989</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>43080</v>
+        <v>473840</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>110373</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1000916</t>
+          <t>1000107</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>永和民權                                    </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2537,29 +2537,29 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>504</v>
+        <v>18000</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>43584</v>
+        <v>491840</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>110374</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000214</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>高雄延慶                                    </t>
+          <t>北市南港國宅                                  </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2578,29 +2578,29 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25798</v>
+        <v>11790</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>69382</v>
+        <v>503630</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>110374</t>
+          <t>110429</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1000087</t>
+          <t>1000619</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>高雄建工                                    </t>
+          <t>雲林水林                                    </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2619,29 +2619,29 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>7840</v>
+        <v>18000</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>77222</v>
+        <v>521630</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>110374</t>
+          <t>110429</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1000186</t>
+          <t>1000741</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鳳山文化                                    </t>
+          <t>嘉義興美                                    </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2660,29 +2660,29 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>14754</v>
+        <v>17394</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>91976</v>
+        <v>539024</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>110374</t>
+          <t>110429</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1000241</t>
+          <t>1000848</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>台南青年                                    </t>
+          <t>北市吳興	                                   </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2701,29 +2701,29 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>9105</v>
+        <v>9000</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>101081</v>
+        <v>548024</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>110377</t>
+          <t>110430</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1000375</t>
+          <t>1000878</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>台南育樂                                    </t>
+          <t>蘆洲長安	                                   </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2742,29 +2742,29 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>20285</v>
+        <v>14300</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>121366</v>
+        <v>562324</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>110377</t>
+          <t>110430</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1000524</t>
+          <t>1000932</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>台南崇明                                    </t>
+          <t>淡水淡大                                    </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2783,29 +2783,29 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>8143</v>
+        <v>27427</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>129509</v>
+        <v>589751</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>110377</t>
+          <t>110431</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1000482</t>
+          <t>1000289</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>台南尊南                                    </t>
+          <t>淡水淡金	                                   </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2824,29 +2824,29 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>9120</v>
+        <v>12422</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>138629</v>
+        <v>602173</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>110377</t>
+          <t>110431</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1000538</t>
+          <t>1000827</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>永康五王                                    </t>
+          <t>竹山竹山                                    </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2865,29 +2865,29 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4475</v>
+        <v>12093</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>143104</v>
+        <v>614266</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>110377</t>
+          <t>110430</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1000552</t>
+          <t>1000273</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>新豐松柏                                    </t>
+          <t>學甲建國                                    </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2906,29 +2906,29 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>15400</v>
+        <v>9494</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>158504</v>
+        <v>623760</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>110377</t>
+          <t>110430</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1000676</t>
+          <t>1000411</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>台南福緣                                    </t>
+          <t>淡水新民	                                   </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2947,29 +2947,29 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>12544</v>
+        <v>8524</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>171048</v>
+        <v>632284</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>110377</t>
+          <t>110431</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1000770</t>
+          <t>1000839</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>樹林站前	                                   </t>
+          <t>北市石牌	                                   </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2988,29 +2988,29 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26284</v>
+        <v>35000</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>197332</v>
+        <v>667284</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>110377</t>
+          <t>110431</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1000953</t>
+          <t>1000867</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>淡水海都	                                   </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3029,29 +3029,29 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>140</v>
+        <v>10800</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>197472</v>
+        <v>678084</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>110376</t>
+          <t>110431</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000884</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>頭份忠孝                                    </t>
+          <t>中壢松義	                                   </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3070,29 +3070,29 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>17273</v>
+        <v>120100</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>214745</v>
+        <v>798184</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>110376</t>
+          <t>110388</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1000051</t>
+          <t>1000871</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>芎林文山                                    </t>
+          <t>其他                                      </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3111,29 +3111,29 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>19016</v>
+        <v>90</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>233761</v>
+        <v>798274</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>110376</t>
+          <t>110388</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1000075</t>
+          <t>1000000</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>頭份自強                                    </t>
+          <t>其他                                      </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3152,29 +3152,29 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>24000</v>
+        <v>122</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>257761</v>
+        <v>798396</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>110376</t>
+          <t>110388</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>1000139</t>
+          <t>1000000</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>頭份珊湖                                    </t>
+          <t>楊梅環東                                    </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3193,29 +3193,29 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>276761</v>
+        <v>826396</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>110376</t>
+          <t>110421</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1000165</t>
+          <t>1000003</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>竹南龍山                                    </t>
+          <t>北市木新                                    </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3234,29 +3234,29 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>10229</v>
+        <v>10451</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>286990</v>
+        <v>836847</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>110376</t>
+          <t>110418</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1000184</t>
+          <t>1000824</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>新竹長春                                    </t>
+          <t>桃園國聖	                                   </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3275,29 +3275,29 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>293990</v>
+        <v>841647</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>110376</t>
+          <t>110418</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1000263</t>
+          <t>1000828</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>竹南光復                                    </t>
+          <t>北市伊通	                                   </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3316,29 +3316,29 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>22357</v>
+        <v>7773</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>316347</v>
+        <v>849420</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>110376</t>
+          <t>110418</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1000270</t>
+          <t>1000924</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>芎林福昌                                    </t>
+          <t>桃園國強	                                   </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3357,29 +3357,29 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>17697</v>
+        <v>18172</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>334044</v>
+        <v>867592</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>110376</t>
+          <t>110418</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1000302</t>
+          <t>1000942</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>新竹建美                                    </t>
+          <t>高雄鼎金                                    </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3398,29 +3398,29 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29000</v>
+        <v>22512</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>363044</v>
+        <v>890104</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>110376</t>
+          <t>110414</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1000449</t>
+          <t>1000108</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>竹南中正                                    </t>
+          <t>大里大明                                    </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3439,29 +3439,29 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10000</v>
+        <v>9697</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>373044</v>
+        <v>899801</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>110376</t>
+          <t>110414</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1000481</t>
+          <t>1000224</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>竹南中山                                    </t>
+          <t>北市景福	                                   </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3480,29 +3480,29 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>13000</v>
+        <v>8900</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>386044</v>
+        <v>908701</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>110376</t>
+          <t>110418</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1000633</t>
+          <t>1000951</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>竹南華東                                    </t>
+          <t>台中十甲                                    </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3521,29 +3521,29 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>18255</v>
+        <v>7370</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>404299</v>
+        <v>916071</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>110376</t>
+          <t>110414</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1000767</t>
+          <t>1000233</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>新竹新莊                                    </t>
+          <t>高雄一心                                    </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3562,29 +3562,29 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>20028</v>
+        <v>7388</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>424327</v>
+        <v>923459</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>110376</t>
+          <t>110414</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1000840</t>
+          <t>1000335</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>竹南仁愛	                                   </t>
+          <t>南崁中山                                    </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3603,29 +3603,29 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>23166</v>
+        <v>11300</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>447493</v>
+        <v>934759</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>110376</t>
+          <t>110414</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1000928</t>
+          <t>1000354</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>台中館前                                    </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3644,29 +3644,29 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1081</v>
+        <v>12760</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>448574</v>
+        <v>947519</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>110377</t>
+          <t>110414</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000394</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>湖口中興                                    </t>
+          <t>高雄英義                                    </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3685,29 +3685,29 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26173</v>
+        <v>15437</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>474747</v>
+        <v>962956</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>110377</t>
+          <t>110414</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>1000207</t>
+          <t>1000432</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>新豐新市                                    </t>
+          <t>台中興大國光                                  </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3726,29 +3726,29 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4855</v>
+        <v>9626</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>479602</v>
+        <v>972582</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>110377</t>
+          <t>110414</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1000235</t>
+          <t>1000485</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>台南永福                                    </t>
+          <t>台中東興                                    </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3767,29 +3767,29 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>11674</v>
+        <v>7186</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>491276</v>
+        <v>979768</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>110377</t>
+          <t>110414</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1000350</t>
+          <t>1000546</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>台南莊敬                                    </t>
+          <t>高雄自強                                    </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3808,29 +3808,29 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23156</v>
+        <v>33610</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>514432</v>
+        <v>1013378</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>110377</t>
+          <t>110414</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1000368</t>
+          <t>1000644</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>中和民樂                                    </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3849,29 +3849,29 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>698</v>
+        <v>25500</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>515130</v>
+        <v>1038878</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>110352</t>
+          <t>110414</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000645</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>台中忠明凱薩                                  </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3890,22 +3890,719 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>72</v>
+        <v>23000</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>515202</v>
+        <v>1061878</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>110352</t>
+          <t>110414</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000761</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>台中五權                                    </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>5306</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1067184</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>110414</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1000762</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>新店永平	                                   </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>7800</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1074984</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>110414</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1000872</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>新店安康                                    </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>11913</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1086897</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>110418</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>1000187</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>員林育英                                    </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>27020</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1113917</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>110418</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1000221</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>三重大仁                                    </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1525</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1115442</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>110418</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1000258</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>平鎮文化                                    </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>9009</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1124451</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>110418</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1000293</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>北市中華                                    </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>15113</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1139564</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>110418</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>1000320</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>埔里民生                                    </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>29734</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1169298</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>110418</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>1000346</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>北市汀州三總                                  </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>12600</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1181898</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>110418</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1000415</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>霧峰亞洲大學                                  </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>14179</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1196077</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>110418</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1000479</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>桃園中平                                    </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>10181</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1206258</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>110418</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1000605</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平鎮莎奇拉雅                                  </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1216258</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>110418</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>1000658</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>北市世新                                    </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>22993</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1239251</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>110418</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>1000661</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>埔里中正                                    </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>18140</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1257391</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>110418</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>1000674</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>三重中正北                                   </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>9500</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1266891</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>110418</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1000722</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>平鎮上海                                    </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>17040</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1283931</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>110418</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>1000769</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>草屯太平                                    </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>27000</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1310931</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>110418</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1000779</t>
         </is>
       </c>
     </row>

--- a/MEDIA/100000_1101_001_會計科目餘額明細.xlsx
+++ b/MEDIA/100000_1101_001_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(100000_1101_001_2020-10-22~2020-10-22)</t>
+          <t>森邦(股)會計科目餘額明細(100000_1101_001_2020-11-16~2020-11-16)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>10802</v>
+        <v>8107</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>沖10/19總收現金                    </t>
+          <t>沖11/16總收現金                    </t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-414</v>
+        <v>-1164503</v>
       </c>
       <c r="G4" t="n">
-        <v>10388</v>
+        <v>-1156396</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110438</t>
+          <t>111472</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,21 +483,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>沖10/20總收現金                    </t>
+          <t>現金換振興卷                        </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F5" t="n">
-        <v>-8068</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2320</v>
+        <v>-1155396</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110438</t>
+          <t>111472</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>沖10/21總收現金                    </t>
+          <t>支付11/16外務停車費                  </t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-2320</v>
+        <v>-25</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1155421</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>110438</t>
+          <t>111472</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +565,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>沖10/22總收現金                    </t>
+          <t>10910台北展NO73戴季穎/戴欣蓓 龍潭梅龍 暫收+保證</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>89500</v>
       </c>
       <c r="F7" t="n">
-        <v>-74945</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-74945</v>
+        <v>-1065921</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>110438</t>
+          <t>111472</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,38 +601,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>其他                                      </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>轉零用金                          </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="F8" t="n">
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-224945</v>
+        <v>-1065138</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>110438</t>
+          <t>111415</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000000</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,38 +642,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>其他                                      </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>支付10/22外務油資+停車費               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="F9" t="n">
-        <v>-2465</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-227410</v>
+        <v>-1064634</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>110438</t>
+          <t>111415</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000000</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>觀音中正                                    </t>
+          <t>南崁台茂                                    </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -692,29 +692,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10316</v>
+        <v>35913</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-217094</v>
+        <v>-1028721</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000457</t>
+          <t>1000005</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>內壢高中                                    </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,29 +733,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>180</v>
+        <v>21152</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-216914</v>
+        <v>-1007569</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>110388</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000133</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>楊梅大成                                    </t>
+          <t>板橋國光                                    </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -774,29 +774,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29400</v>
+        <v>9991</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-187514</v>
+        <v>-997578</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000543</t>
+          <t>1000176</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>觀音新坡                                    </t>
+          <t>板橋新生                                    </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -815,29 +815,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17773</v>
+        <v>18492</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-169741</v>
+        <v>-979086</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000617</t>
+          <t>1000288</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中央大學校內                                  </t>
+          <t>板橋仁化                                    </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -856,29 +856,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19000</v>
+        <v>24359</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-150741</v>
+        <v>-954727</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000646</t>
+          <t>1000341</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中和遠雄                                    </t>
+          <t>泰山海德堡                                   </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -897,29 +897,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6749</v>
+        <v>9632</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-143992</v>
+        <v>-945095</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000694</t>
+          <t>1000469</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>比佛利                                     </t>
+          <t>泰山仁武                                    </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -938,29 +938,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11500</v>
+        <v>14700</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-132492</v>
+        <v>-930395</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000703</t>
+          <t>1000506</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>楠梓監理                                    </t>
+          <t>蘆洲鷺江                                    </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -979,29 +979,29 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20000</v>
+        <v>19543</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-112492</v>
+        <v>-910852</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000711</t>
+          <t>1000713</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中和泰和                                    </t>
+          <t>板橋大同                                    </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1020,29 +1020,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16000</v>
+        <v>19247</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-96492</v>
+        <v>-891605</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000807</t>
+          <t>1000729</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>永和永平                                    </t>
+          <t>中和積穗                                    </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1061,29 +1061,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10594</v>
+        <v>27162</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-85898</v>
+        <v>-864443</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000818</t>
+          <t>1000025</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>板橋大同                                    </t>
+          <t>淡水新民	                                   </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1102,29 +1102,29 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17929</v>
+        <v>11968</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-67969</v>
+        <v>-852475</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000729</t>
+          <t>1000839</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>板橋中山	                                   </t>
+          <t>蘆洲長安	                                   </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,29 +1143,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24070</v>
+        <v>17400</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-43899</v>
+        <v>-835075</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000799</t>
+          <t>1000932</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>永和中山	                                   </t>
+          <t>楊梅三民                                    </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1184,29 +1184,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>11100</v>
+        <v>23220</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-32799</v>
+        <v>-811855</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1000869</t>
+          <t>1000068</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>板橋新民	                                   </t>
+          <t>永和得和                                    </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10985</v>
+        <v>27230</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-21814</v>
+        <v>-784625</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1000930</t>
+          <t>1000162</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>板橋新生                                    </t>
+          <t>桃園經國                                    </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1266,29 +1266,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>13239</v>
+        <v>49000</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-8575</v>
+        <v>-735625</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>110428</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1000288</t>
+          <t>1000020</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>泰山海德堡                                   </t>
+          <t>永和民權                                    </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1307,29 +1307,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1575</v>
+        <v>-722625</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>110428</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1000469</t>
+          <t>1000214</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中壢三光	                                   </t>
+          <t>中和多倫多                                   </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1348,29 +1348,29 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>10629</v>
+        <v>26430</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>9054</v>
+        <v>-696195</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1000934</t>
+          <t>1000279</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>新莊新豐                                    </t>
+          <t>台北錦州                                    </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>23890</v>
+        <v>17000</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>32944</v>
+        <v>-679195</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>110428</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1000142</t>
+          <t>1000212</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>土城千歲                                    </t>
+          <t>北市松隆                                    </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1430,29 +1430,29 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4059</v>
+        <v>8503</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>37003</v>
+        <v>-670692</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>110428</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1000559</t>
+          <t>1000339</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>板橋龍興                                    </t>
+          <t>楊梅大成                                    </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1471,29 +1471,29 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>11500</v>
+        <v>22300</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>48503</v>
+        <v>-648392</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>110428</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1000566</t>
+          <t>1000543</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>迴龍光啟                                    </t>
+          <t>觀音新坡                                    </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1512,29 +1512,29 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27000</v>
+        <v>21788</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>75503</v>
+        <v>-626604</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>110428</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1000697</t>
+          <t>1000617</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>土城頂捷                                    </t>
+          <t>桃園同安                                    </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1553,29 +1553,29 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>20000</v>
+        <v>31100</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>95503</v>
+        <v>-595504</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>110428</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1000712</t>
+          <t>1000526</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>嘉義民族                                    </t>
+          <t>中和民樂                                    </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1594,29 +1594,29 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>19733</v>
+        <v>18927</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>115236</v>
+        <v>-576577</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>110429</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1000092</t>
+          <t>1000645</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>朴子海通                                    </t>
+          <t>中和遠雄                                    </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1635,29 +1635,29 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25621</v>
+        <v>4358</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>140857</v>
+        <v>-572219</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>110429</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1000161</t>
+          <t>1000694</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>台北大龍                                    </t>
+          <t>桃園中平                                    </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1676,29 +1676,29 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>8111</v>
+        <v>11856</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>148968</v>
+        <v>-560363</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>110430</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1000039</t>
+          <t>1000605</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>台北敦煌                                    </t>
+          <t>桃園龍壽                                    </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1717,29 +1717,29 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>9607</v>
+        <v>18615</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>158575</v>
+        <v>-541748</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>110430</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1000048</t>
+          <t>1000771</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>觀音觀音                                    </t>
+          <t>桃園國聖	                                   </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1758,29 +1758,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>16147</v>
+        <v>13281</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>174722</v>
+        <v>-528467</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1000021</t>
+          <t>1000828</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>土城明峯                                    </t>
+          <t>比佛利                                     </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1799,29 +1799,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>9000</v>
+        <v>6800</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>183722</v>
+        <v>-521667</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>110428</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1000581</t>
+          <t>1000703</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>新莊民安                                    </t>
+          <t>中和興南                                    </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1840,29 +1840,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>16000</v>
+        <v>9227</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>199722</v>
+        <v>-512440</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>110428</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1000739</t>
+          <t>1000787</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>板橋樂群	                                   </t>
+          <t>北市吳興	                                   </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1881,29 +1881,29 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>14810</v>
+        <v>18000</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>214532</v>
+        <v>-494440</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>110428</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1000825</t>
+          <t>1000878</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>嘉義彌陀                                    </t>
+          <t>中和泰和                                    </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1922,29 +1922,29 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>11618</v>
+        <v>20000</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>226150</v>
+        <v>-474440</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>110429</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1000260</t>
+          <t>1000807</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>萬能科大                                    </t>
+          <t>新店永平	                                   </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1963,29 +1963,29 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>14436</v>
+        <v>9070</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>240586</v>
+        <v>-465370</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>110429</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1000401</t>
+          <t>1000872</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>台北錦州                                    </t>
+          <t>北市伊通	                                   </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2004,29 +2004,29 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>8000</v>
+        <v>13506</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>248586</v>
+        <v>-451864</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>110430</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1000212</t>
+          <t>1000924</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>北市松隆                                    </t>
+          <t>桃園國強	                                   </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2045,29 +2045,29 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5869</v>
+        <v>14204</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>254455</v>
+        <v>-437660</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>110430</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1000339</t>
+          <t>1000942</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>佳里延平                                    </t>
+          <t>平鎮文化                                    </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2086,29 +2086,29 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25794</v>
+        <v>5037</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>280249</v>
+        <v>-432623</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>110430</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1000416</t>
+          <t>1000293</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>楠梓藍昌                                    </t>
+          <t>北市中華                                    </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2127,29 +2127,29 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>21000</v>
+        <v>5870</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>301249</v>
+        <v>-426753</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1000085</t>
+          <t>1000320</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中壢成章                                    </t>
+          <t>板橋篤行                                    </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2168,29 +2168,29 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>17500</v>
+        <v>50550</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>318749</v>
+        <v>-376203</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>110429</t>
+          <t>111466</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1000053</t>
+          <t>1000033</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中壢長春                                    </t>
+          <t>新莊昌明                                    </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2209,29 +2209,29 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>24000</v>
+        <v>22697</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>342749</v>
+        <v>-353506</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>110429</t>
+          <t>111466</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1000558</t>
+          <t>1000243</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>嘉義太保                                    </t>
+          <t>土城千歲                                    </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2250,29 +2250,29 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>15294</v>
+        <v>1305</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>358043</v>
+        <v>-352201</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>110429</t>
+          <t>111468</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1000608</t>
+          <t>1000559</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>北市建國                                    </t>
+          <t>北市汀州三總                                  </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2291,29 +2291,29 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>16221</v>
+        <v>12000</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>374264</v>
+        <v>-340201</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>110430</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1000360</t>
+          <t>1000415</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>北市士商	                                   </t>
+          <t>蘆竹仁愛                                    </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2332,29 +2332,29 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>11973</v>
+        <v>5400</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>386237</v>
+        <v>-334801</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>110430</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1000800</t>
+          <t>1000201</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>善化蓮潭                                    </t>
+          <t>新莊建安                                    </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2373,29 +2373,29 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>9257</v>
+        <v>316</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>395494</v>
+        <v>-334485</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>110430</t>
+          <t>111466</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1000587</t>
+          <t>1000246</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>新營民治	                                   </t>
+          <t>三重大仁                                    </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2414,29 +2414,29 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34891</v>
+        <v>10748</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>430385</v>
+        <v>-323737</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>110430</t>
+          <t>111466</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1000906</t>
+          <t>1000258</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>北市忠義                                    </t>
+          <t>板橋龍興                                    </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2455,29 +2455,29 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27466</v>
+        <v>9300</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>457851</v>
+        <v>-314437</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>110431</t>
+          <t>111468</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1000189</t>
+          <t>1000566</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>岡山校前                                    </t>
+          <t>平鎮莎奇拉雅                                  </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2496,29 +2496,29 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>15989</v>
+        <v>5000</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>473840</v>
+        <v>-309437</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1000107</t>
+          <t>1000658</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>永和民權                                    </t>
+          <t>平鎮廣德                                    </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2537,29 +2537,29 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>18000</v>
+        <v>823</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>491840</v>
+        <v>-308614</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1000214</t>
+          <t>1000764</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>北市南港國宅                                  </t>
+          <t>平鎮上海                                    </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2578,29 +2578,29 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>11790</v>
+        <v>17391</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>503630</v>
+        <v>-291223</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>110429</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1000619</t>
+          <t>1000769</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>雲林水林                                    </t>
+          <t>南崁新南                                    </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2619,29 +2619,29 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>18000</v>
+        <v>42792</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>521630</v>
+        <v>-248431</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>110429</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1000741</t>
+          <t>1000274</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>嘉義興美                                    </t>
+          <t>林口文化                                    </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2660,29 +2660,29 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>17394</v>
+        <v>35645</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>539024</v>
+        <v>-212786</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>110429</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1000848</t>
+          <t>1000321</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>北市吳興	                                   </t>
+          <t>三重捷運                                    </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2701,29 +2701,29 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>9000</v>
+        <v>24570</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>548024</v>
+        <v>-188216</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>110430</t>
+          <t>111466</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1000878</t>
+          <t>1000377</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>蘆洲長安	                                   </t>
+          <t>三重中正北                                   </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2742,29 +2742,29 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>14300</v>
+        <v>25500</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>562324</v>
+        <v>-162716</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>110430</t>
+          <t>111466</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1000932</t>
+          <t>1000722</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>淡水淡大                                    </t>
+          <t>北市士商	                                   </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2783,29 +2783,29 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27427</v>
+        <v>22702</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>589751</v>
+        <v>-140014</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>110431</t>
+          <t>111468</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1000289</t>
+          <t>1000800</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>淡水淡金	                                   </t>
+          <t>板橋樂群	                                   </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2824,29 +2824,29 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12422</v>
+        <v>12917</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>602173</v>
+        <v>-127097</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>110431</t>
+          <t>111468</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1000827</t>
+          <t>1000825</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>竹山竹山                                    </t>
+          <t>永和永平                                    </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2865,29 +2865,29 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>12093</v>
+        <v>9681</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>614266</v>
+        <v>-117416</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>110430</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1000273</t>
+          <t>1000818</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>學甲建國                                    </t>
+          <t>北市木新                                    </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2906,29 +2906,29 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>9494</v>
+        <v>19494</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>623760</v>
+        <v>-97922</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>110430</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1000411</t>
+          <t>1000824</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>淡水新民	                                   </t>
+          <t>南崁中山                                    </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2947,29 +2947,29 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8524</v>
+        <v>12800</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>632284</v>
+        <v>-85122</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>110431</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1000839</t>
+          <t>1000354</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>北市石牌	                                   </t>
+          <t>林口佳林                                    </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2988,29 +2988,29 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>35000</v>
+        <v>25435</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>667284</v>
+        <v>-59687</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>110431</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1000867</t>
+          <t>1000364</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>淡水海都	                                   </t>
+          <t>三重頂崁	                                   </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3029,29 +3029,29 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>10800</v>
+        <v>8998</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>678084</v>
+        <v>-50689</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>110431</t>
+          <t>111466</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1000884</t>
+          <t>1000796</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中壢松義	                                   </t>
+          <t>龜山大同	                                   </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3070,29 +3070,29 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>120100</v>
+        <v>27637</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>798184</v>
+        <v>-23052</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>110388</t>
+          <t>111466</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1000871</t>
+          <t>1000892</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>北市石牌	                                   </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3111,29 +3111,29 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>90</v>
+        <v>19615</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>798274</v>
+        <v>-3437</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>110388</t>
+          <t>111468</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000867</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>板橋新民	                                   </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3152,29 +3152,29 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>122</v>
+        <v>21327</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>798396</v>
+        <v>17890</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>110388</t>
+          <t>111468</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000930</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>楊梅環東                                    </t>
+          <t>永和中山	                                   </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3193,29 +3193,29 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28000</v>
+        <v>7300</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>826396</v>
+        <v>25190</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>110421</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1000003</t>
+          <t>1000869</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>北市木新                                    </t>
+          <t>中壢三光	                                   </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3234,29 +3234,29 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>10451</v>
+        <v>15870</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>836847</v>
+        <v>41060</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>110418</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1000824</t>
+          <t>1000934</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>桃園國聖	                                   </t>
+          <t>內壢永福                                    </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3275,29 +3275,29 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4800</v>
+        <v>11994</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>841647</v>
+        <v>53054</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>110418</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1000828</t>
+          <t>1000392</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>北市伊通	                                   </t>
+          <t>內壢元智                                    </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3316,29 +3316,29 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>7773</v>
+        <v>10127</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>849420</v>
+        <v>63181</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>110418</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1000924</t>
+          <t>1000396</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>桃園國強	                                   </t>
+          <t>萬能科大                                    </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3357,29 +3357,29 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>18172</v>
+        <v>9115</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>867592</v>
+        <v>72296</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>110418</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1000942</t>
+          <t>1000401</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>高雄鼎金                                    </t>
+          <t>北市景福	                                   </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3398,29 +3398,29 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>22512</v>
+        <v>14500</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>890104</v>
+        <v>86796</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>110414</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1000108</t>
+          <t>1000951</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>大里大明                                    </t>
+          <t>淡水海都	                                   </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3439,1170 +3439,22 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9697</v>
+        <v>13200</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>899801</v>
+        <v>99996</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>110414</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1000224</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>北市景福	                                   </t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>8900</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>908701</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>1000951</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>台中十甲                                    </t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>7370</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>916071</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>110414</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>1000233</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>高雄一心                                    </t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>7388</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>923459</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>110414</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>1000335</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>南崁中山                                    </t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>11300</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>934759</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>110414</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>1000354</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>台中館前                                    </t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>12760</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>947519</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>110414</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>1000394</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>高雄英義                                    </t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>15437</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>962956</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>110414</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>1000432</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>台中興大國光                                  </t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>9626</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="n">
-        <v>972582</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>110414</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>1000485</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>台中東興                                    </t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>7186</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>979768</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>110414</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>1000546</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>高雄自強                                    </t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>33610</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1013378</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>110414</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>1000644</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>中和民樂                                    </t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>25500</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1038878</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>110414</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>1000645</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>台中忠明凱薩                                  </t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>23000</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1061878</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>110414</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>1000761</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>台中五權                                    </t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>5306</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1067184</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>110414</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>1000762</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>新店永平	                                   </t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>7800</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1074984</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>110414</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>1000872</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>新店安康                                    </t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>11913</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1086897</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>1000187</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>員林育英                                    </t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>27020</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1113917</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>1000221</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>三重大仁                                    </t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>1525</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1115442</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>1000258</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>平鎮文化                                    </t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>9009</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1124451</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>1000293</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>北市中華                                    </t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>15113</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1139564</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>1000320</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>埔里民生                                    </t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>29734</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1169298</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>1000346</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>北市汀州三總                                  </t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>12600</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1181898</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>1000415</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>霧峰亞洲大學                                  </t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>14179</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1196077</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>1000479</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>桃園中平                                    </t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>10181</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1206258</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>1000605</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>平鎮莎奇拉雅                                  </t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1216258</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>1000658</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>北市世新                                    </t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>22993</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1239251</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>1000661</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>埔里中正                                    </t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>18140</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1257391</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>1000674</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>三重中正北                                   </t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>9500</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1266891</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>1000722</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>平鎮上海                                    </t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>17040</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1283931</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>1000769</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>20201022</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>1101  .001     </t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>草屯太平                                    </t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>27000</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1310931</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>110418</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>1000779</t>
+          <t>1000884</t>
         </is>
       </c>
     </row>
